--- a/jmeter test plans/comparacao/grafico xls/consulta_orgaos.xlsx
+++ b/jmeter test plans/comparacao/grafico xls/consulta_orgaos.xlsx
@@ -100,12 +100,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Consulta</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Empregados Ativos</a:t>
+              <a:t>Remove Dependentes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -159,13 +155,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>276.5</c:v>
+                  <c:v>243.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2725.63</c:v>
+                  <c:v>1986.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12599.12</c:v>
+                  <c:v>3217.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -213,51 +209,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>244.27</c:v>
+                  <c:v>216.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2414.12</c:v>
+                  <c:v>1803.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11268.03</c:v>
+                  <c:v>3167.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inBase"/>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="109788160"/>
-        <c:axId val="109791104"/>
+        <c:axId val="58604544"/>
+        <c:axId val="58630912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109788160"/>
+        <c:axId val="58604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Usuários</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> Simultâneos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109791104"/>
+        <c:crossAx val="58630912"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109791104"/>
+        <c:axId val="58630912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Milissegundo (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109788160"/>
+        <c:crossAx val="58604544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -270,7 +306,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -281,15 +317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:colOff>533398</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -598,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="J7:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,13 +660,13 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>276.5</v>
+        <v>243.79</v>
       </c>
       <c r="L8">
-        <v>2725.63</v>
+        <v>1986.24</v>
       </c>
       <c r="M8">
-        <v>12599.12</v>
+        <v>3217.65</v>
       </c>
     </row>
     <row r="9" spans="10:15">
@@ -638,13 +674,13 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>244.27</v>
+        <v>216.8</v>
       </c>
       <c r="L9">
-        <v>2414.12</v>
+        <v>1803.56</v>
       </c>
       <c r="M9">
-        <v>11268.03</v>
+        <v>3167.65</v>
       </c>
     </row>
     <row r="10" spans="10:15">
